--- a/public/default/data.xlsx
+++ b/public/default/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23513"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{426C5969-7A21-403A-B341-585EB02ED818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB5CD8C-B272-4163-87AB-73F31C510B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,27 +317,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,394 +684,394 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="50.28515625" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="45" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="3" customWidth="1"/>
+    <col min="3" max="4" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="50.28515625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="45" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="31.5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="I2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="31.5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="I3" s="4" t="s">
+      <c r="G3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="47.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="2"/>
+      <c r="I4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="47.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="2"/>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="31.5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="31.5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="6"/>
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="31.5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="6"/>
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="31.5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="I10" s="4" t="s">
+      <c r="G10" s="6"/>
+      <c r="I10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="31.5">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="I11" s="4" t="s">
+      <c r="G11" s="6"/>
+      <c r="I11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="47.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="I12" s="4" t="s">
+      <c r="G12" s="6"/>
+      <c r="I12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="2" t="s">
         <v>21</v>
       </c>
     </row>

--- a/public/default/data.xlsx
+++ b/public/default/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB5CD8C-B272-4163-87AB-73F31C510B78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2784CBD-8CFB-423F-9CC4-ACA10095D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Ngày tạo KH</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Mô tả</t>
   </si>
   <si>
-    <t>14/11/2019 17:15:41</t>
+    <t>14/11/2019</t>
   </si>
   <si>
     <t>Chị Nguyễn Huyền Trang</t>
@@ -100,7 +100,7 @@
     <t>Hồng Huế</t>
   </si>
   <si>
-    <t>25/09/2019 14:59:09</t>
+    <t>25/09/2019</t>
   </si>
   <si>
     <t>Chị Nguyễn Thị Vy</t>
@@ -116,7 +116,7 @@
 Điện di tinh chất HA/Vitamin C/ Tế bào gốc</t>
   </si>
   <si>
-    <t>06/09/2019 15:58:50</t>
+    <t>06/09/2019</t>
   </si>
   <si>
     <t>Chị Nguyễn Thanh Huyền</t>
@@ -132,7 +132,7 @@
 Thải độc than Black, Điện di tinh chất HA/ Vitamin C/ Tế bào gốc </t>
   </si>
   <si>
-    <t>16/08/2019 22:04:31</t>
+    <t>16/08/2019</t>
   </si>
   <si>
     <t>Chị Phạm Thanh Xuân</t>
@@ -148,7 +148,7 @@
 Thải độc than Black, Điện di tinh chất HA/ Vitamin C/ Tế bào gốc, Triệt mép nam / nữ</t>
   </si>
   <si>
-    <t>13/08/2019 08:58:35</t>
+    <t>13/08/2019</t>
   </si>
   <si>
     <t>Chị Vũ Ngọc Quỳnh</t>
@@ -164,7 +164,7 @@
 Điện di tinh chất HA/ Vitamin C/ Tế bào gốc </t>
   </si>
   <si>
-    <t>09/08/2019 17:29:13</t>
+    <t>09/08/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Chị Nguyễn Thị Minh Tâm </t>
@@ -180,7 +180,7 @@
 Trẻ hóa vàng 24k</t>
   </si>
   <si>
-    <t>07/08/2019 22:18:56</t>
+    <t>07/08/2019</t>
   </si>
   <si>
     <t>Chị Hà Thu Hương</t>
@@ -196,7 +196,7 @@
 Điện di tinh chất HA / Vitamin C/ Tế bào gốc </t>
   </si>
   <si>
-    <t>06/08/2019 17:12:20</t>
+    <t>06/08/2019</t>
   </si>
   <si>
     <t>Chị Phạm Thúy Hằng</t>
@@ -215,7 +215,7 @@
 Điện di tinh chất HA / Vitamin C/ Tế bào gốc </t>
   </si>
   <si>
-    <t>30/11/2018 18:59:01</t>
+    <t>30/11/2019</t>
   </si>
   <si>
     <t>Chị Lê Linh Trang</t>
@@ -227,9 +227,6 @@
     <t>0972721532</t>
   </si>
   <si>
-    <t>30/11/2018 18:56:08</t>
-  </si>
-  <si>
     <t>Chị Lê Thị Dung</t>
   </si>
   <si>
@@ -237,23 +234,6 @@
   </si>
   <si>
     <t>0962486284</t>
-  </si>
-  <si>
-    <t>30/11/2018 18:56:07</t>
-  </si>
-  <si>
-    <t>Chị Nguyễn Thùy Linh</t>
-  </si>
-  <si>
-    <t>KH0779</t>
-  </si>
-  <si>
-    <t>0839866266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thải độc oxy, Trị mụn, Căng bóng nano siêu vi điểm 
-Điện di tinh chất HA/ Vitamin C/ Tế bào gốc 
-Đánh thức làn da </t>
   </si>
 </sst>
 </file>
@@ -683,8 +663,8 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,16 +997,16 @@
     </row>
     <row r="11" spans="1:13" ht="31.5">
       <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>17</v>
@@ -1045,35 +1025,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="47.25">
-      <c r="A12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/public/default/data.xlsx
+++ b/public/default/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24004"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2784CBD-8CFB-423F-9CC4-ACA10095D71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A96F4D3-0CCC-4E00-B27B-E5E77F989EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17925" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
   <si>
     <t>Ngày tạo KH</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Chi nhánh</t>
   </si>
   <si>
     <t>14/11/2019</t>
@@ -100,6 +103,9 @@
     <t>Hồng Huế</t>
   </si>
   <si>
+    <t>Chi nhánh Tân Bình</t>
+  </si>
+  <si>
     <t>25/09/2019</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
 Điện di tinh chất HA/ Vitamin C/ Tế bào gốc </t>
   </si>
   <si>
+    <t>Chi nhánh Láng Hạ</t>
+  </si>
+  <si>
     <t>09/08/2019</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
   <si>
     <t xml:space="preserve">Thải độc oxy, Trị mụn , Căng bóng nano siêu vi điểm 
 Điện di tinh chất HA / Vitamin C/ Tế bào gốc </t>
+  </si>
+  <si>
+    <t>Chi Nhánh Gò Vấp</t>
   </si>
   <si>
     <t>30/11/2019</t>
@@ -240,7 +252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,6 +275,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -297,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,6 +330,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +681,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -681,10 +701,11 @@
     <col min="11" max="11" width="50.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="26.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="45" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="3"/>
+    <col min="14" max="14" width="34.28515625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1">
+    <row r="1" spans="1:14" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -724,308 +745,341 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="31.5">
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="31.5">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="6"/>
       <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="31.5">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="31.5">
-      <c r="A3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G3" s="2"/>
       <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="47.25">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="47.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="47.25">
+      <c r="A5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="47.25">
-      <c r="A5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="31.5">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="31.5">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="31.5">
+      <c r="A7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="31.5">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G7" s="6"/>
       <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="36" customHeight="1">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="36" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G8" s="2"/>
       <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="31.5">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="31.5">
-      <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G9" s="6"/>
       <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="31.5">
+      <c r="A10" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="31.5">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G10" s="6"/>
       <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="31.5">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="31.5">
-      <c r="A11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="G11" s="6"/>
       <c r="I11" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75">
+        <v>22</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
